--- a/projects/brazil_bu_chem/config/inventory.xlsx
+++ b/projects/brazil_bu_chem/config/inventory.xlsx
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -309,7 +309,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.48"/>
@@ -764,7 +764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -774,7 +774,7 @@
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4193,7 +4193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4203,7 +4203,7 @@
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.67"/>
@@ -6335,7 +6335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6345,7 +6345,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.67"/>
@@ -9785,7 +9785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9795,7 +9795,7 @@
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
@@ -9858,17 +9858,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9883,95 +9883,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
         <v>19.2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>22.5</v>
       </c>
     </row>
   </sheetData>

--- a/projects/brazil_bu_chem/config/inventory.xlsx
+++ b/projects/brazil_bu_chem/config/inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="mileage" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="fuel" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="met" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="s" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">fleet_age!$A$1:$AA$41</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="64">
   <si>
     <t xml:space="preserve">family</t>
   </si>
@@ -45,6 +46,15 @@
     <t xml:space="preserve">trips_day</t>
   </si>
   <si>
+    <t xml:space="preserve">km_cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driving_cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC</t>
   </si>
   <si>
@@ -55,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">1400cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTP-75</t>
   </si>
   <si>
     <t xml:space="preserve">PC_E</t>
@@ -102,6 +115,9 @@
     <t xml:space="preserve">3.8-6t</t>
   </si>
   <si>
+    <t xml:space="preserve">WVU 5-Peak (Truck) Cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRUCKS_L_D</t>
   </si>
   <si>
@@ -132,6 +148,9 @@
     <t xml:space="preserve">15-18t</t>
   </si>
   <si>
+    <t xml:space="preserve">City Suburban cycle</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUS_MICRO_D</t>
   </si>
   <si>
@@ -151,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">150cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMTC</t>
   </si>
   <si>
     <t xml:space="preserve">MC_150_500_G</t>
@@ -208,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -230,13 +252,26 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -273,12 +308,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,6 +334,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -303,13 +355,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F11:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.48"/>
@@ -333,429 +385,672 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>17.787</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>8.069</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8.069</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8.069</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8.069</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8.069</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10.752</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10.752</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10.752</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9.111</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -771,92 +1066,92 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="1" sqref="F11:H15 E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4478,7 @@
   <autoFilter ref="A1:AA41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4200,10 +4495,10 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="F11:H15 N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.67"/>
@@ -4219,93 +4514,91 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="W1" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6619,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6342,10 +6635,10 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="F11:H15 I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.67"/>
@@ -6372,85 +6665,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9776,7 +10069,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9792,10 +10085,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="F11:H15 D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
@@ -9807,15 +10100,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.84</v>
@@ -9826,7 +10119,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.809</v>
@@ -9837,7 +10130,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.75425</v>
@@ -9849,7 +10142,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9864,18 +10157,18 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="F11:H15 D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9889,7 +10182,8369 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="F11:H15 V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U24" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U28" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U30" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U32" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U33" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U40" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U41" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:AA7 B8:I41 V8:AA41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T23">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="colorScale" priority="235">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R29">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q30">
+    <cfRule type="colorScale" priority="274">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30">
+    <cfRule type="colorScale" priority="275">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="colorScale" priority="277">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U30">
+    <cfRule type="colorScale" priority="278">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="colorScale" priority="279">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="colorScale" priority="280">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="colorScale" priority="281">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31">
+    <cfRule type="colorScale" priority="282">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="colorScale" priority="283">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31">
+    <cfRule type="colorScale" priority="284">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="colorScale" priority="285">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31">
+    <cfRule type="colorScale" priority="286">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="colorScale" priority="287">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
+    <cfRule type="colorScale" priority="288">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
+    <cfRule type="colorScale" priority="289">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="colorScale" priority="290">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="colorScale" priority="291">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="colorScale" priority="292">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="colorScale" priority="293">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32">
+    <cfRule type="colorScale" priority="294">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="colorScale" priority="295">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32">
+    <cfRule type="colorScale" priority="296">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32">
+    <cfRule type="colorScale" priority="297">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32">
+    <cfRule type="colorScale" priority="298">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32">
+    <cfRule type="colorScale" priority="299">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="colorScale" priority="300">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T32">
+    <cfRule type="colorScale" priority="301">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32">
+    <cfRule type="colorScale" priority="302">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="colorScale" priority="304">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="colorScale" priority="305">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="colorScale" priority="306">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="colorScale" priority="307">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
+    <cfRule type="colorScale" priority="308">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="colorScale" priority="309">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33">
+    <cfRule type="colorScale" priority="310">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33">
+    <cfRule type="colorScale" priority="311">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S33">
+    <cfRule type="colorScale" priority="312">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T33">
+    <cfRule type="colorScale" priority="313">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33">
+    <cfRule type="colorScale" priority="314">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="colorScale" priority="315">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="colorScale" priority="316">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="colorScale" priority="317">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34">
+    <cfRule type="colorScale" priority="320">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34">
+    <cfRule type="colorScale" priority="321">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="colorScale" priority="322">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34">
+    <cfRule type="colorScale" priority="323">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34">
+    <cfRule type="colorScale" priority="324">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T34">
+    <cfRule type="colorScale" priority="325">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U34">
+    <cfRule type="colorScale" priority="326">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="colorScale" priority="327">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="colorScale" priority="328">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="colorScale" priority="329">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
+    <cfRule type="colorScale" priority="330">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="colorScale" priority="334">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35">
+    <cfRule type="colorScale" priority="335">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S35">
+    <cfRule type="colorScale" priority="336">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T35">
+    <cfRule type="colorScale" priority="337">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U35">
+    <cfRule type="colorScale" priority="338">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="colorScale" priority="339">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="colorScale" priority="340">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36">
+    <cfRule type="colorScale" priority="341">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="colorScale" priority="342">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="colorScale" priority="343">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
+    <cfRule type="colorScale" priority="344">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="colorScale" priority="345">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="colorScale" priority="346">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="colorScale" priority="347">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
+    <cfRule type="colorScale" priority="348">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T36">
+    <cfRule type="colorScale" priority="349">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U36">
+    <cfRule type="colorScale" priority="350">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="colorScale" priority="351">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="colorScale" priority="352">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="colorScale" priority="353">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
+    <cfRule type="colorScale" priority="354">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="colorScale" priority="355">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="colorScale" priority="356">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37">
+    <cfRule type="colorScale" priority="357">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="colorScale" priority="358">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37">
+    <cfRule type="colorScale" priority="359">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37">
+    <cfRule type="colorScale" priority="360">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
+    <cfRule type="colorScale" priority="361">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37">
+    <cfRule type="colorScale" priority="362">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="colorScale" priority="363">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="colorScale" priority="364">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="colorScale" priority="365">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="colorScale" priority="366">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38">
+    <cfRule type="colorScale" priority="367">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38">
+    <cfRule type="colorScale" priority="368">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38">
+    <cfRule type="colorScale" priority="369">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38">
+    <cfRule type="colorScale" priority="370">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R38">
+    <cfRule type="colorScale" priority="371">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S38">
+    <cfRule type="colorScale" priority="372">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
+    <cfRule type="colorScale" priority="373">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U38">
+    <cfRule type="colorScale" priority="374">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="colorScale" priority="376">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="colorScale" priority="377">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39">
+    <cfRule type="colorScale" priority="378">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="colorScale" priority="379">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39">
+    <cfRule type="colorScale" priority="380">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39">
+    <cfRule type="colorScale" priority="381">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q39">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R39">
+    <cfRule type="colorScale" priority="383">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S39">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T39">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="colorScale" priority="388">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40">
+    <cfRule type="colorScale" priority="390">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O40">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40">
+    <cfRule type="colorScale" priority="393">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R40">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S40">
+    <cfRule type="colorScale" priority="396">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T40">
+    <cfRule type="colorScale" priority="397">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U40">
+    <cfRule type="colorScale" priority="398">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J41">
+    <cfRule type="colorScale" priority="399">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41">
+    <cfRule type="colorScale" priority="401">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41">
+    <cfRule type="colorScale" priority="402">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41">
+    <cfRule type="colorScale" priority="404">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41">
+    <cfRule type="colorScale" priority="405">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="colorScale" priority="406">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R41">
+    <cfRule type="colorScale" priority="407">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S41">
+    <cfRule type="colorScale" priority="408">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T41">
+    <cfRule type="colorScale" priority="409">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U41">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFEEEEEE"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00A933"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/projects/brazil_bu_chem/config/inventory.xlsx
+++ b/projects/brazil_bu_chem/config/inventory.xlsx
@@ -5,21 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="fleet_age" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="tfs" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="mileage" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="fuel" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="met" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="s" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="im_ok" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="im_co" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="im_hc" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="im_nox" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="im_pm" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="metadata" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="fleet_age" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="tfs" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="mileage" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="fuel" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="met" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="s" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="im_ok" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="im_co" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="im_hc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="im_nox" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="im_pm" sheetId="12" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">fleet_age!$A$1:$AA$41</definedName>
@@ -335,7 +335,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,10 +345,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +373,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -389,6 +385,112 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -396,8 +498,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="S41:U41 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +508,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,13 +571,13 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>1.798</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>-0.137</v>
       </c>
     </row>
@@ -504,13 +606,13 @@
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>1.798</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>-0.137</v>
       </c>
     </row>
@@ -539,13 +641,13 @@
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>1.798</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>-0.137</v>
       </c>
     </row>
@@ -574,13 +676,13 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>1.798</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>-0.137</v>
       </c>
     </row>
@@ -609,13 +711,13 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -644,13 +746,13 @@
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -679,13 +781,13 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -714,13 +816,13 @@
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -749,13 +851,13 @@
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -781,13 +883,13 @@
       <c r="H11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -813,13 +915,13 @@
       <c r="H12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -845,13 +947,13 @@
       <c r="H13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -877,13 +979,13 @@
       <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -909,13 +1011,13 @@
       <c r="H15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>17</v>
       </c>
     </row>
@@ -941,13 +1043,13 @@
       <c r="H16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>19.1</v>
       </c>
     </row>
@@ -973,13 +1075,13 @@
       <c r="H17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="1" t="n">
         <v>19.1</v>
       </c>
     </row>
@@ -1005,13 +1107,13 @@
       <c r="H18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>0.16</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="1" t="n">
         <v>19.1</v>
       </c>
     </row>
@@ -1040,13 +1142,13 @@
       <c r="H19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1075,13 +1177,13 @@
       <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1110,13 +1212,13 @@
       <c r="H21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1145,13 +1247,13 @@
       <c r="H22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1180,13 +1282,13 @@
       <c r="H23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1215,13 +1317,13 @@
       <c r="H24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1250,13 +1352,13 @@
       <c r="H25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1285,13 +1387,13 @@
       <c r="H26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1320,13 +1422,13 @@
       <c r="H27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>1.618</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="1" t="n">
         <v>-0.141</v>
       </c>
     </row>
@@ -1349,7 +1451,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="S41:U41 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1405,7 +1507,7 @@
       <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -4799,7 +4901,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="S41:U41 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8249,7 +8351,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="S41:U41 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11698,92 +11800,92 @@
   </sheetPr>
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S41" activeCellId="0" sqref="S41:U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14831,13 +14933,13 @@
         <v>83.3379257801383</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>1385.69994577177</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>0</v>
+        <v>197.957135110253</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0</v>
+        <v>65.9857117034177</v>
       </c>
       <c r="V38" s="1" t="n">
         <v>0</v>
@@ -14914,13 +15016,13 @@
         <v>69.7068874893</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>1385.69994577177</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>0</v>
+        <v>197.957135110253</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0</v>
+        <v>65.9857117034177</v>
       </c>
       <c r="V39" s="1" t="n">
         <v>0</v>
@@ -14997,13 +15099,13 @@
         <v>73.6259904864516</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>1385.69994577177</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0</v>
+        <v>197.957135110253</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0</v>
+        <v>65.9857117034177</v>
       </c>
       <c r="V40" s="1" t="n">
         <v>0</v>
@@ -15080,13 +15182,13 @@
         <v>56.0752014499431</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0</v>
+        <v>1385.69994577177</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0</v>
+        <v>197.957135110253</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0</v>
+        <v>65.9857117034177</v>
       </c>
       <c r="V41" s="1" t="n">
         <v>0</v>
@@ -15128,7 +15230,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="S41:U41 N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17268,7 +17370,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="S41:U41 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17282,7 +17384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.37"/>
@@ -20718,7 +20820,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="S41:U41 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20791,16 +20893,16 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="S41:U41 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -20831,7 +20933,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="S41:U41 V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20842,7 +20944,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.22"/>
@@ -21472,40 +21574,40 @@
       <c r="I8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U8" s="5" t="n">
+      <c r="J8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U8" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V8" s="1" t="n">
@@ -21555,40 +21657,40 @@
       <c r="I9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U9" s="5" t="n">
+      <c r="J9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U9" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V9" s="1" t="n">
@@ -21638,40 +21740,40 @@
       <c r="I10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" s="5" t="n">
+      <c r="J10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V10" s="1" t="n">
@@ -21721,40 +21823,40 @@
       <c r="I11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U11" s="5" t="n">
+      <c r="J11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V11" s="1" t="n">
@@ -21804,40 +21906,40 @@
       <c r="I12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U12" s="5" t="n">
+      <c r="J12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V12" s="1" t="n">
@@ -21887,40 +21989,40 @@
       <c r="I13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" s="5" t="n">
+      <c r="J13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U13" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V13" s="1" t="n">
@@ -21970,40 +22072,40 @@
       <c r="I14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U14" s="5" t="n">
+      <c r="J14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V14" s="1" t="n">
@@ -22053,40 +22155,40 @@
       <c r="I15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U15" s="5" t="n">
+      <c r="J15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V15" s="1" t="n">
@@ -22136,40 +22238,40 @@
       <c r="I16" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U16" s="5" t="n">
+      <c r="J16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U16" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V16" s="1" t="n">
@@ -22219,40 +22321,40 @@
       <c r="I17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="J17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U17" s="5" t="n">
+      <c r="J17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V17" s="1" t="n">
@@ -22302,40 +22404,40 @@
       <c r="I18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U18" s="5" t="n">
+      <c r="J18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U18" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V18" s="1" t="n">
@@ -22385,40 +22487,40 @@
       <c r="I19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U19" s="5" t="n">
+      <c r="J19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U19" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V19" s="1" t="n">
@@ -22468,40 +22570,40 @@
       <c r="I20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U20" s="5" t="n">
+      <c r="J20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V20" s="1" t="n">
@@ -22551,40 +22653,40 @@
       <c r="I21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U21" s="5" t="n">
+      <c r="J21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U21" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V21" s="1" t="n">
@@ -22634,40 +22736,40 @@
       <c r="I22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U22" s="5" t="n">
+      <c r="J22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U22" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V22" s="1" t="n">
@@ -22717,40 +22819,40 @@
       <c r="I23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U23" s="5" t="n">
+      <c r="J23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V23" s="1" t="n">
@@ -22800,40 +22902,40 @@
       <c r="I24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T24" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U24" s="5" t="n">
+      <c r="J24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U24" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V24" s="1" t="n">
@@ -22883,40 +22985,40 @@
       <c r="I25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U25" s="5" t="n">
+      <c r="J25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V25" s="1" t="n">
@@ -22966,40 +23068,40 @@
       <c r="I26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U26" s="5" t="n">
+      <c r="J26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V26" s="1" t="n">
@@ -23049,40 +23151,40 @@
       <c r="I27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U27" s="5" t="n">
+      <c r="J27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V27" s="1" t="n">
@@ -23132,40 +23234,40 @@
       <c r="I28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U28" s="5" t="n">
+      <c r="J28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U28" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V28" s="1" t="n">
@@ -23215,40 +23317,40 @@
       <c r="I29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U29" s="5" t="n">
+      <c r="J29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U29" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V29" s="1" t="n">
@@ -23298,40 +23400,40 @@
       <c r="I30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U30" s="5" t="n">
+      <c r="J30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U30" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V30" s="1" t="n">
@@ -23381,40 +23483,40 @@
       <c r="I31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U31" s="5" t="n">
+      <c r="J31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U31" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V31" s="1" t="n">
@@ -23464,40 +23566,40 @@
       <c r="I32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U32" s="5" t="n">
+      <c r="J32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U32" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V32" s="1" t="n">
@@ -23547,40 +23649,40 @@
       <c r="I33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T33" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U33" s="5" t="n">
+      <c r="J33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U33" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V33" s="1" t="n">
@@ -23630,40 +23732,40 @@
       <c r="I34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T34" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U34" s="5" t="n">
+      <c r="J34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U34" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V34" s="1" t="n">
@@ -23713,40 +23815,40 @@
       <c r="I35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T35" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U35" s="5" t="n">
+      <c r="J35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U35" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V35" s="1" t="n">
@@ -23796,40 +23898,40 @@
       <c r="I36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U36" s="5" t="n">
+      <c r="J36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U36" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V36" s="1" t="n">
@@ -23879,40 +23981,40 @@
       <c r="I37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U37" s="5" t="n">
+      <c r="J37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V37" s="1" t="n">
@@ -23962,40 +24064,40 @@
       <c r="I38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T38" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U38" s="5" t="n">
+      <c r="J38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U38" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V38" s="1" t="n">
@@ -24045,40 +24147,40 @@
       <c r="I39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T39" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U39" s="5" t="n">
+      <c r="J39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U39" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V39" s="1" t="n">
@@ -24128,40 +24230,40 @@
       <c r="I40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T40" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U40" s="5" t="n">
+      <c r="J40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U40" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V40" s="1" t="n">
@@ -24211,40 +24313,40 @@
       <c r="I41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="P41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="U41" s="5" t="n">
+      <c r="J41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="P41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U41" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V41" s="1" t="n">
@@ -29193,7 +29295,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="S41:U41 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30373,7 +30475,7 @@
       <c r="D15" s="1" t="n">
         <v>0.85</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.85</v>
       </c>
       <c r="F15" s="1" t="n">
@@ -31037,7 +31139,7 @@
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="1" t="n">
@@ -32620,7 +32722,7 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="S41:U41 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
